--- a/Sharpe das Estratégias/s3T.xlsx
+++ b/Sharpe das Estratégias/s3T.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F41C2-AB90-4C2C-BAC6-A12D21E40BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,416 +638,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>0.7135350466282018</v>
+        <v>0.71353504662820177</v>
       </c>
       <c r="C2">
-        <v>0.6515474719228456</v>
+        <v>0.65154747192284557</v>
       </c>
       <c r="D2">
         <v>0.5481019649158323</v>
       </c>
       <c r="E2">
-        <v>0.3128381615656624</v>
+        <v>0.31283816156566241</v>
       </c>
       <c r="F2">
         <v>0.6416365832767531</v>
       </c>
       <c r="G2">
-        <v>0.3454595799373164</v>
+        <v>0.34545957993731641</v>
       </c>
       <c r="H2">
-        <v>1.253921119122695</v>
+        <v>1.2539211191226951</v>
       </c>
       <c r="I2">
-        <v>0.985019899461237</v>
+        <v>0.98501989946123703</v>
       </c>
       <c r="J2">
-        <v>1.160163694558347</v>
+        <v>1.1601636945583469</v>
       </c>
       <c r="K2">
-        <v>0.6882976254395256</v>
+        <v>0.68829762543952555</v>
       </c>
       <c r="L2">
-        <v>0.9538152696586704</v>
+        <v>0.95381526965867036</v>
       </c>
       <c r="M2">
-        <v>0.8067203081801174</v>
+        <v>0.80672030818011742</v>
       </c>
       <c r="N2">
-        <v>1.131445630301435</v>
+        <v>1.1314456303014351</v>
       </c>
       <c r="O2">
-        <v>0.6113885693456685</v>
+        <v>0.61138856934566854</v>
       </c>
       <c r="P2">
         <v>1.257763471524773</v>
       </c>
       <c r="Q2">
-        <v>0.6873770788899495</v>
+        <v>0.68737707888994948</v>
       </c>
       <c r="R2">
-        <v>0.3539312684114702</v>
+        <v>0.35393126841147021</v>
       </c>
       <c r="S2">
-        <v>0.8030156010456131</v>
+        <v>0.80301560104561309</v>
       </c>
       <c r="T2">
-        <v>0.8668728216397807</v>
+        <v>0.86687282163978074</v>
       </c>
       <c r="U2">
-        <v>0.8449405603435006</v>
+        <v>0.84494056034350062</v>
       </c>
       <c r="V2">
-        <v>0.8074637527997801</v>
+        <v>0.80746375279978011</v>
       </c>
       <c r="W2">
-        <v>0.2491751766753925</v>
+        <v>0.24917517667539249</v>
       </c>
       <c r="X2">
-        <v>0.9989725275725042</v>
+        <v>0.99897252757250421</v>
       </c>
       <c r="Y2">
         <v>0.6060776303446167</v>
       </c>
       <c r="Z2">
-        <v>0.7555841679977419</v>
+        <v>0.75558416799774186</v>
       </c>
       <c r="AA2">
-        <v>0.3701908764688931</v>
+        <v>0.37019087646889309</v>
       </c>
       <c r="AB2">
-        <v>0.6327928719932417</v>
+        <v>0.63279287199324175</v>
       </c>
       <c r="AC2">
         <v>1.395289612488894</v>
       </c>
       <c r="AD2">
-        <v>0.9327573342465244</v>
+        <v>0.93275733424652441</v>
       </c>
       <c r="AE2">
-        <v>0.5317523186428025</v>
+        <v>0.53175231864280248</v>
       </c>
       <c r="AF2">
-        <v>1.21974169710053</v>
+        <v>1.2197416971005299</v>
       </c>
       <c r="AG2">
-        <v>0.7386233942701669</v>
+        <v>0.73862339427016688</v>
       </c>
       <c r="AH2">
-        <v>0.9726663350687206</v>
+        <v>0.97266633506872058</v>
       </c>
       <c r="AI2">
-        <v>0.5197984905633828</v>
+        <v>0.51979849056338279</v>
       </c>
       <c r="AJ2">
-        <v>0.7327181721139857</v>
+        <v>0.73271817211398571</v>
       </c>
       <c r="AK2">
-        <v>0.900588888445978</v>
+        <v>0.90058888844597795</v>
       </c>
       <c r="AL2">
-        <v>0.8310522196882498</v>
+        <v>0.83105221968824983</v>
       </c>
       <c r="AM2">
-        <v>0.3042022459424742</v>
+        <v>0.30420224594247419</v>
       </c>
       <c r="AN2">
-        <v>0.5273843460103215</v>
+        <v>0.52738434601032147</v>
       </c>
       <c r="AO2">
-        <v>0.4190122996908511</v>
+        <v>0.41901229969085108</v>
       </c>
       <c r="AP2">
-        <v>0.8533811015716073</v>
+        <v>0.85338110157160729</v>
       </c>
       <c r="AQ2">
-        <v>0.9556412157340846</v>
+        <v>0.95564121573408456</v>
       </c>
       <c r="AR2">
-        <v>0.6509439337274258</v>
+        <v>0.65094393372742576</v>
       </c>
       <c r="AS2">
-        <v>0.4935286400444243</v>
+        <v>0.49352864004442432</v>
       </c>
       <c r="AT2">
-        <v>0.8016364980743723</v>
+        <v>0.80163649807437232</v>
       </c>
       <c r="AU2">
-        <v>0.4425120611145187</v>
+        <v>0.44251206111451868</v>
       </c>
       <c r="AV2">
-        <v>0.8591620031078602</v>
+        <v>0.85916200310786017</v>
       </c>
       <c r="AW2">
-        <v>0.6933765468933358</v>
+        <v>0.69337654689333583</v>
       </c>
       <c r="AX2">
-        <v>0.8886819880103761</v>
+        <v>0.88868198801037612</v>
       </c>
       <c r="AY2">
-        <v>0.3746339435019855</v>
+        <v>0.37463394350198548</v>
       </c>
       <c r="AZ2">
-        <v>0.6880393610443887</v>
+        <v>0.68803936104438868</v>
       </c>
       <c r="BA2">
-        <v>0.2332823814270664</v>
+        <v>0.23328238142706639</v>
       </c>
       <c r="BB2">
-        <v>0.6731931472192295</v>
+        <v>0.67319314721922952</v>
       </c>
       <c r="BC2">
-        <v>0.736616001066795</v>
+        <v>0.73661600106679503</v>
       </c>
       <c r="BD2">
-        <v>0.9987776369365389</v>
+        <v>0.99877763693653887</v>
       </c>
       <c r="BE2">
-        <v>0.6392889693563957</v>
+        <v>0.63928896935639568</v>
       </c>
       <c r="BF2">
-        <v>0.5644385830151952</v>
+        <v>0.56443858301519523</v>
       </c>
       <c r="BG2">
-        <v>0.8194298029135721</v>
+        <v>0.81942980291357215</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>0.7711794008614775</v>
+        <v>0.77117940086147752</v>
       </c>
       <c r="C3">
-        <v>1.006047525076394</v>
+        <v>1.0060475250763941</v>
       </c>
       <c r="D3">
-        <v>0.6000078425881983</v>
+        <v>0.60000784258819828</v>
       </c>
       <c r="E3">
-        <v>0.5003413279696504</v>
+        <v>0.50034132796965036</v>
       </c>
       <c r="F3">
-        <v>1.175148870212161</v>
+        <v>1.1751488702121611</v>
       </c>
       <c r="G3">
-        <v>0.6704664315109056</v>
+        <v>0.67046643151090557</v>
       </c>
       <c r="H3">
-        <v>1.410583611727061</v>
+        <v>1.4105836117270609</v>
       </c>
       <c r="I3">
-        <v>0.7668427179638546</v>
+        <v>0.76684271796385461</v>
       </c>
       <c r="J3">
         <v>1.030863330825607</v>
       </c>
       <c r="K3">
-        <v>1.04824956812953</v>
+        <v>1.0482495681295301</v>
       </c>
       <c r="L3">
-        <v>0.8941524067729961</v>
+        <v>0.89415240677299612</v>
       </c>
       <c r="M3">
-        <v>0.9784336732585455</v>
+        <v>0.97843367325854547</v>
       </c>
       <c r="N3">
-        <v>0.9421707493226565</v>
+        <v>0.94217074932265654</v>
       </c>
       <c r="O3">
-        <v>0.5320324637803022</v>
+        <v>0.53203246378030222</v>
       </c>
       <c r="P3">
-        <v>1.221684419596966</v>
+        <v>1.2216844195969661</v>
       </c>
       <c r="Q3">
         <v>1.178910249393712</v>
@@ -786,147 +1061,147 @@
         <v>1.085383809394755</v>
       </c>
       <c r="T3">
-        <v>0.6937844222901217</v>
+        <v>0.69378442229012172</v>
       </c>
       <c r="U3">
-        <v>0.7470455749612472</v>
+        <v>0.74704557496124724</v>
       </c>
       <c r="V3">
-        <v>0.8999958001714636</v>
+        <v>0.89999580017146363</v>
       </c>
       <c r="W3">
-        <v>0.9750784010738685</v>
+        <v>0.97507840107386845</v>
       </c>
       <c r="X3">
         <v>1.061223661572726</v>
       </c>
       <c r="Y3">
-        <v>0.8457862397593752</v>
+        <v>0.84578623975937517</v>
       </c>
       <c r="Z3">
-        <v>0.8493941067966231</v>
+        <v>0.84939410679662308</v>
       </c>
       <c r="AA3">
-        <v>0.6451450528952367</v>
+        <v>0.64514505289523671</v>
       </c>
       <c r="AB3">
-        <v>0.6374821735117644</v>
+        <v>0.63748217351176439</v>
       </c>
       <c r="AC3">
         <v>1.556844801622618</v>
       </c>
       <c r="AD3">
-        <v>1.287114726753796</v>
+        <v>1.2871147267537959</v>
       </c>
       <c r="AE3">
-        <v>0.6523615799128912</v>
+        <v>0.65236157991289123</v>
       </c>
       <c r="AF3">
-        <v>0.9664318208110242</v>
+        <v>0.96643182081102419</v>
       </c>
       <c r="AG3">
-        <v>0.7370812888828226</v>
+        <v>0.73708128888282265</v>
       </c>
       <c r="AH3">
-        <v>0.9195539377217417</v>
+        <v>0.91955393772174165</v>
       </c>
       <c r="AI3">
-        <v>0.6000225679773006</v>
+        <v>0.60002256797730058</v>
       </c>
       <c r="AJ3">
-        <v>0.7413593057361341</v>
+        <v>0.74135930573613407</v>
       </c>
       <c r="AK3">
-        <v>1.037154284971148</v>
+        <v>1.0371542849711479</v>
       </c>
       <c r="AL3">
-        <v>0.6604783183040256</v>
+        <v>0.66047831830402559</v>
       </c>
       <c r="AM3">
-        <v>0.9539539165560598</v>
+        <v>0.95395391655605977</v>
       </c>
       <c r="AN3">
-        <v>0.5782136538983548</v>
+        <v>0.57821365389835477</v>
       </c>
       <c r="AO3">
-        <v>0.7867694620126675</v>
+        <v>0.78676946201266751</v>
       </c>
       <c r="AP3">
-        <v>1.050644557089241</v>
+        <v>1.0506445570892411</v>
       </c>
       <c r="AQ3">
         <v>1.103022593620399</v>
       </c>
       <c r="AR3">
-        <v>0.7868320120293955</v>
+        <v>0.78683201202939546</v>
       </c>
       <c r="AS3">
         <v>1.192028362402652</v>
       </c>
       <c r="AT3">
-        <v>0.9950545479886047</v>
+        <v>0.99505454798860471</v>
       </c>
       <c r="AU3">
-        <v>1.107617369207862</v>
+        <v>1.1076173692078619</v>
       </c>
       <c r="AV3">
         <v>0.6968389993954377</v>
       </c>
       <c r="AW3">
-        <v>0.8835642030412927</v>
+        <v>0.88356420304129268</v>
       </c>
       <c r="AX3">
         <v>1.065880224489526</v>
       </c>
       <c r="AY3">
-        <v>0.5227118000241233</v>
+        <v>0.52271180002412332</v>
       </c>
       <c r="AZ3">
-        <v>0.7344929763919275</v>
+        <v>0.73449297639192745</v>
       </c>
       <c r="BA3">
-        <v>0.4067313047917356</v>
+        <v>0.40673130479173558</v>
       </c>
       <c r="BB3">
-        <v>0.7622312169933513</v>
+        <v>0.76223121699335128</v>
       </c>
       <c r="BC3">
         <v>1.100189692871042</v>
       </c>
       <c r="BD3">
-        <v>1.365398198105711</v>
+        <v>1.3653981981057111</v>
       </c>
       <c r="BE3">
-        <v>0.7259328969596128</v>
+        <v>0.72593289695961283</v>
       </c>
       <c r="BF3">
-        <v>0.6202517534216737</v>
+        <v>0.62025175342167371</v>
       </c>
       <c r="BG3">
         <v>0.6952055208155925</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>0.4622836825997026</v>
+        <v>0.46228368259970259</v>
       </c>
       <c r="C4">
-        <v>0.4418603038689652</v>
+        <v>0.44186030386896519</v>
       </c>
       <c r="D4">
-        <v>0.3038446125355851</v>
+        <v>0.30384461253558509</v>
       </c>
       <c r="E4">
-        <v>-0.00187990017296158</v>
+        <v>-1.8799001729615801E-3</v>
       </c>
       <c r="F4">
-        <v>0.475008895222476</v>
+        <v>0.47500889522247602</v>
       </c>
       <c r="G4">
-        <v>0.3796409533593419</v>
+        <v>0.37964095335934189</v>
       </c>
       <c r="H4">
         <v>1.104730508373686</v>
@@ -935,61 +1210,61 @@
         <v>0.6348687900203952</v>
       </c>
       <c r="J4">
-        <v>0.7690048554155368</v>
+        <v>0.76900485541553676</v>
       </c>
       <c r="K4">
-        <v>0.146304030242193</v>
+        <v>0.14630403024219299</v>
       </c>
       <c r="L4">
-        <v>0.9078068018729326</v>
+        <v>0.90780680187293261</v>
       </c>
       <c r="M4">
-        <v>0.5558199960910317</v>
+        <v>0.55581999609103172</v>
       </c>
       <c r="N4">
-        <v>0.8082824700986823</v>
+        <v>0.80828247009868226</v>
       </c>
       <c r="O4">
-        <v>0.5836681389125463</v>
+        <v>0.58366813891254632</v>
       </c>
       <c r="P4">
-        <v>0.7989586706932644</v>
+        <v>0.79895867069326443</v>
       </c>
       <c r="Q4">
-        <v>0.6273422906691675</v>
+        <v>0.62734229066916747</v>
       </c>
       <c r="R4">
-        <v>0.07946947179478187</v>
+        <v>7.9469471794781865E-2</v>
       </c>
       <c r="S4">
         <v>0.6353353462946878</v>
       </c>
       <c r="T4">
-        <v>0.80249419030972</v>
+        <v>0.80249419030972002</v>
       </c>
       <c r="U4">
-        <v>0.5516818158082574</v>
+        <v>0.55168181580825737</v>
       </c>
       <c r="V4">
-        <v>0.4565384535713934</v>
+        <v>0.45653845357139339</v>
       </c>
       <c r="W4">
-        <v>0.8577397560700016</v>
+        <v>0.85773975607000164</v>
       </c>
       <c r="X4">
-        <v>0.3495146070498477</v>
+        <v>0.34951460704984771</v>
       </c>
       <c r="Y4">
         <v>0.2490407750398036</v>
       </c>
       <c r="Z4">
-        <v>0.683142909133539</v>
+        <v>0.68314290913353903</v>
       </c>
       <c r="AA4">
-        <v>0.2763287825016392</v>
+        <v>0.27632878250163923</v>
       </c>
       <c r="AB4">
-        <v>0.2379823346024101</v>
+        <v>0.23798233460241011</v>
       </c>
       <c r="AC4">
         <v>1.195859496966214</v>
@@ -998,70 +1273,70 @@
         <v>1.176066866992731</v>
       </c>
       <c r="AE4">
-        <v>0.9038142843371623</v>
+        <v>0.90381428433716227</v>
       </c>
       <c r="AF4">
-        <v>0.9953646952000652</v>
+        <v>0.99536469520006521</v>
       </c>
       <c r="AG4">
-        <v>0.5967720955530392</v>
+        <v>0.59677209555303923</v>
       </c>
       <c r="AH4">
-        <v>0.6706457099033739</v>
+        <v>0.67064570990337391</v>
       </c>
       <c r="AI4">
-        <v>0.7708381121140465</v>
+        <v>0.77083811211404651</v>
       </c>
       <c r="AJ4">
-        <v>0.6785265715069987</v>
+        <v>0.67852657150699869</v>
       </c>
       <c r="AK4">
         <v>0.6049279721405536</v>
       </c>
       <c r="AL4">
-        <v>0.9070386570588769</v>
+        <v>0.90703865705887687</v>
       </c>
       <c r="AM4">
-        <v>0.2528856309219993</v>
+        <v>0.25288563092199928</v>
       </c>
       <c r="AN4">
-        <v>0.3697098359548976</v>
+        <v>0.36970983595489759</v>
       </c>
       <c r="AO4">
         <v>0.4878017011647266</v>
       </c>
       <c r="AP4">
-        <v>0.2893679060980477</v>
+        <v>0.28936790609804769</v>
       </c>
       <c r="AQ4">
-        <v>0.9112752027515699</v>
+        <v>0.91127520275156992</v>
       </c>
       <c r="AR4">
-        <v>0.4191892735002545</v>
+        <v>0.41918927350025448</v>
       </c>
       <c r="AS4">
-        <v>0.309882961401278</v>
+        <v>0.30988296140127802</v>
       </c>
       <c r="AT4">
-        <v>0.4555180656691895</v>
+        <v>0.45551806566918951</v>
       </c>
       <c r="AU4">
-        <v>0.1826523455979668</v>
+        <v>0.18265234559796681</v>
       </c>
       <c r="AV4">
-        <v>0.6948316338585355</v>
+        <v>0.69483163385853552</v>
       </c>
       <c r="AW4">
-        <v>0.9135864988118393</v>
+        <v>0.91358649881183929</v>
       </c>
       <c r="AX4">
-        <v>0.4848650765669277</v>
+        <v>0.48486507656692768</v>
       </c>
       <c r="AY4">
-        <v>0.4982902942910366</v>
+        <v>0.49829029429103661</v>
       </c>
       <c r="AZ4">
-        <v>0.3721100256046844</v>
+        <v>0.37211002560468442</v>
       </c>
       <c r="BA4">
         <v>0.1526117850183501</v>
@@ -1070,57 +1345,57 @@
         <v>0.8300350350750767</v>
       </c>
       <c r="BC4">
-        <v>0.7853283039948228</v>
+        <v>0.78532830399482279</v>
       </c>
       <c r="BD4">
-        <v>0.5731071129408729</v>
+        <v>0.57310711294087291</v>
       </c>
       <c r="BE4">
-        <v>0.7398542355111806</v>
+        <v>0.73985423551118057</v>
       </c>
       <c r="BF4">
-        <v>0.5916721040499741</v>
+        <v>0.59167210404997406</v>
       </c>
       <c r="BG4">
-        <v>0.5814357677676948</v>
+        <v>0.58143576776769479</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>0.3905965750284167</v>
+        <v>0.39059657502841671</v>
       </c>
       <c r="C5">
-        <v>0.4428171225318822</v>
+        <v>0.44281712253188221</v>
       </c>
       <c r="D5">
         <v>0.1823516567173826</v>
       </c>
       <c r="E5">
-        <v>-0.09179291610564305</v>
+        <v>-9.1792916105643052E-2</v>
       </c>
       <c r="F5">
-        <v>0.4594557393381135</v>
+        <v>0.45945573933811351</v>
       </c>
       <c r="G5">
-        <v>0.4088681823146457</v>
+        <v>0.40886818231464572</v>
       </c>
       <c r="H5">
         <v>1.072448328982003</v>
       </c>
       <c r="I5">
-        <v>0.7055643117361612</v>
+        <v>0.70556431173616119</v>
       </c>
       <c r="J5">
-        <v>1.022350043840247</v>
+        <v>1.0223500438402471</v>
       </c>
       <c r="K5">
-        <v>0.007302429021223553</v>
+        <v>7.3024290212235533E-3</v>
       </c>
       <c r="L5">
-        <v>0.8861122479681656</v>
+        <v>0.88611224796816557</v>
       </c>
       <c r="M5">
         <v>0.6818324872705207</v>
@@ -1129,150 +1404,150 @@
         <v>1.073220526176754</v>
       </c>
       <c r="O5">
-        <v>0.4606521678889441</v>
+        <v>0.46065216788894409</v>
       </c>
       <c r="P5">
-        <v>0.5127107492071524</v>
+        <v>0.51271074920715243</v>
       </c>
       <c r="Q5">
-        <v>0.643882058451243</v>
+        <v>0.64388205845124302</v>
       </c>
       <c r="R5">
-        <v>0.3450468910304353</v>
+        <v>0.34504689103043529</v>
       </c>
       <c r="S5">
-        <v>0.4866969025477234</v>
+        <v>0.48669690254772341</v>
       </c>
       <c r="T5">
-        <v>0.6618929469159199</v>
+        <v>0.66189294691591993</v>
       </c>
       <c r="U5">
-        <v>0.5194593499981173</v>
+        <v>0.51945934999811727</v>
       </c>
       <c r="V5">
-        <v>0.4956762502145073</v>
+        <v>0.49567625021450729</v>
       </c>
       <c r="W5">
-        <v>0.5368947189520586</v>
+        <v>0.53689471895205865</v>
       </c>
       <c r="X5">
-        <v>0.2510298467153251</v>
+        <v>0.25102984671532508</v>
       </c>
       <c r="Y5">
-        <v>0.2025931232139483</v>
+        <v>0.20259312321394829</v>
       </c>
       <c r="Z5">
-        <v>0.4289695227161754</v>
+        <v>0.42896952271617539</v>
       </c>
       <c r="AA5">
-        <v>0.1725643165630233</v>
+        <v>0.17256431656302329</v>
       </c>
       <c r="AB5">
-        <v>0.1227299355688383</v>
+        <v>0.12272993556883829</v>
       </c>
       <c r="AC5">
-        <v>0.9996179268642895</v>
+        <v>0.99961792686428952</v>
       </c>
       <c r="AD5">
-        <v>1.008805102229197</v>
+        <v>1.0088051022291971</v>
       </c>
       <c r="AE5">
-        <v>0.9945447981994988</v>
+        <v>0.99454479819949881</v>
       </c>
       <c r="AF5">
-        <v>0.8781241788153029</v>
+        <v>0.87812417881530291</v>
       </c>
       <c r="AG5">
-        <v>0.6937269934960826</v>
+        <v>0.69372699349608258</v>
       </c>
       <c r="AH5">
-        <v>0.5426140454973464</v>
+        <v>0.54261404549734638</v>
       </c>
       <c r="AI5">
-        <v>0.7402207511043128</v>
+        <v>0.74022075110431285</v>
       </c>
       <c r="AJ5">
-        <v>0.7048575549780072</v>
+        <v>0.70485755497800717</v>
       </c>
       <c r="AK5">
-        <v>0.540018607233037</v>
+        <v>0.54001860723303696</v>
       </c>
       <c r="AL5">
-        <v>0.9482430302569131</v>
+        <v>0.94824303025691314</v>
       </c>
       <c r="AM5">
-        <v>0.4008122993453329</v>
+        <v>0.40081229934533291</v>
       </c>
       <c r="AN5">
-        <v>0.4537621474512264</v>
+        <v>0.45376214745122639</v>
       </c>
       <c r="AO5">
-        <v>0.5677283236800196</v>
+        <v>0.56772832368001958</v>
       </c>
       <c r="AP5">
-        <v>0.2558125980155451</v>
+        <v>0.25581259801554512</v>
       </c>
       <c r="AQ5">
-        <v>0.7287329833786709</v>
+        <v>0.72873298337867087</v>
       </c>
       <c r="AR5">
-        <v>0.41112381177746</v>
+        <v>0.41112381177745999</v>
       </c>
       <c r="AS5">
-        <v>-0.2887429632144483</v>
+        <v>-0.28874296321444831</v>
       </c>
       <c r="AT5">
-        <v>0.2596817949544565</v>
+        <v>0.25968179495445648</v>
       </c>
       <c r="AU5">
-        <v>0.2503281612974597</v>
+        <v>0.25032816129745972</v>
       </c>
       <c r="AV5">
-        <v>0.5258698785954083</v>
+        <v>0.52586987859540835</v>
       </c>
       <c r="AW5">
         <v>0.8749626617153945</v>
       </c>
       <c r="AX5">
-        <v>0.3750903746804395</v>
+        <v>0.37509037468043949</v>
       </c>
       <c r="AY5">
-        <v>0.4908375330481943</v>
+        <v>0.49083753304819427</v>
       </c>
       <c r="AZ5">
-        <v>0.597126274740532</v>
+        <v>0.59712627474053204</v>
       </c>
       <c r="BA5">
-        <v>0.2816526842150531</v>
+        <v>0.28165268421505307</v>
       </c>
       <c r="BB5">
-        <v>0.7658733545634873</v>
+        <v>0.76587335456348726</v>
       </c>
       <c r="BC5">
         <v>0.9054228253235741</v>
       </c>
       <c r="BD5">
-        <v>0.5507615771984147</v>
+        <v>0.55076157719841468</v>
       </c>
       <c r="BE5">
-        <v>0.6294826511153612</v>
+        <v>0.62948265111536117</v>
       </c>
       <c r="BF5">
-        <v>0.6893502451506374</v>
+        <v>0.68935024515063736</v>
       </c>
       <c r="BG5">
-        <v>0.4170223756525563</v>
+        <v>0.41702237565255629</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>1.768838568050822</v>
+        <v>1.7688385680508221</v>
       </c>
       <c r="C6">
-        <v>1.797644350237038</v>
+        <v>1.7976443502370381</v>
       </c>
       <c r="D6">
         <v>1.483248682160651</v>
@@ -1281,19 +1556,19 @@
         <v>1.559255104920432</v>
       </c>
       <c r="F6">
-        <v>2.121439200272883</v>
+        <v>2.1214392002728828</v>
       </c>
       <c r="G6">
         <v>1.173379128184727</v>
       </c>
       <c r="H6">
-        <v>2.038243952614906</v>
+        <v>2.0382439526149061</v>
       </c>
       <c r="I6">
         <v>1.988620997516956</v>
       </c>
       <c r="J6">
-        <v>2.197440151779421</v>
+        <v>2.1974401517794209</v>
       </c>
       <c r="K6">
         <v>1.726168362717069</v>
@@ -1302,16 +1577,16 @@
         <v>2.063684705594774</v>
       </c>
       <c r="M6">
-        <v>1.403013433120676</v>
+        <v>1.4030134331206761</v>
       </c>
       <c r="N6">
-        <v>1.891816040438253</v>
+        <v>1.8918160404382529</v>
       </c>
       <c r="O6">
         <v>2.086087071921944</v>
       </c>
       <c r="P6">
-        <v>2.024481836993906</v>
+        <v>2.0244818369939059</v>
       </c>
       <c r="Q6">
         <v>2.158823781115335</v>
@@ -1323,25 +1598,25 @@
         <v>2.127528096538561</v>
       </c>
       <c r="T6">
-        <v>2.011428205629925</v>
+        <v>2.0114282056299251</v>
       </c>
       <c r="U6">
-        <v>1.916139165894652</v>
+        <v>1.9161391658946521</v>
       </c>
       <c r="V6">
         <v>1.76358594858873</v>
       </c>
       <c r="W6">
-        <v>1.708403536715139</v>
+        <v>1.7084035367151389</v>
       </c>
       <c r="X6">
         <v>1.724595204964801</v>
       </c>
       <c r="Y6">
-        <v>1.703165799547761</v>
+        <v>1.7031657995477609</v>
       </c>
       <c r="Z6">
-        <v>1.910179960372057</v>
+        <v>1.9101799603720571</v>
       </c>
       <c r="AA6">
         <v>1.551852316482399</v>
@@ -1350,28 +1625,28 @@
         <v>1.418321837343981</v>
       </c>
       <c r="AC6">
-        <v>2.502067630047801</v>
+        <v>2.5020676300478009</v>
       </c>
       <c r="AD6">
-        <v>2.110071236601226</v>
+        <v>2.1100712366012262</v>
       </c>
       <c r="AE6">
         <v>1.772068687892018</v>
       </c>
       <c r="AF6">
-        <v>2.376286982883033</v>
+        <v>2.3762869828830331</v>
       </c>
       <c r="AG6">
         <v>1.888483008919406</v>
       </c>
       <c r="AH6">
-        <v>1.813679877405732</v>
+        <v>1.8136798774057321</v>
       </c>
       <c r="AI6">
         <v>1.505351860813809</v>
       </c>
       <c r="AJ6">
-        <v>2.287617134678653</v>
+        <v>2.2876171346786531</v>
       </c>
       <c r="AK6">
         <v>2.102872823993434</v>
@@ -1383,13 +1658,13 @@
         <v>1.849802477156109</v>
       </c>
       <c r="AN6">
-        <v>1.524233922541422</v>
+        <v>1.5242339225414221</v>
       </c>
       <c r="AO6">
-        <v>2.002554088232689</v>
+        <v>2.0025540882326891</v>
       </c>
       <c r="AP6">
-        <v>1.815197427271448</v>
+        <v>1.8151974272714479</v>
       </c>
       <c r="AQ6">
         <v>2.107873135978005</v>
@@ -1398,22 +1673,22 @@
         <v>1.959163854549256</v>
       </c>
       <c r="AS6">
-        <v>1.766857342648693</v>
+        <v>1.7668573426486931</v>
       </c>
       <c r="AT6">
-        <v>1.906550949582482</v>
+        <v>1.9065509495824819</v>
       </c>
       <c r="AU6">
         <v>1.786963850106944</v>
       </c>
       <c r="AV6">
-        <v>1.818375494219996</v>
+        <v>1.8183754942199959</v>
       </c>
       <c r="AW6">
-        <v>1.774642415810681</v>
+        <v>1.7746424158106811</v>
       </c>
       <c r="AX6">
-        <v>1.832215562984511</v>
+        <v>1.8322155629845109</v>
       </c>
       <c r="AY6">
         <v>1.640735920698795</v>
@@ -1428,10 +1703,10 @@
         <v>2.279185719944163</v>
       </c>
       <c r="BC6">
-        <v>1.70502012083237</v>
+        <v>1.7050201208323701</v>
       </c>
       <c r="BD6">
-        <v>2.124463217397725</v>
+        <v>2.1244632173977251</v>
       </c>
       <c r="BE6">
         <v>1.816055149031051</v>
@@ -1443,221 +1718,221 @@
         <v>1.672577602507332</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>0.989996810796386</v>
+        <v>0.98999681079638602</v>
       </c>
       <c r="C7">
-        <v>0.9920340003215068</v>
+        <v>0.99203400032150679</v>
       </c>
       <c r="D7">
-        <v>0.05363825394890399</v>
+        <v>5.3638253948903987E-2</v>
       </c>
       <c r="E7">
-        <v>0.1777209836257163</v>
+        <v>0.17772098362571631</v>
       </c>
       <c r="F7">
-        <v>0.7976374230580895</v>
+        <v>0.79763742305808949</v>
       </c>
       <c r="G7">
-        <v>0.341137217519308</v>
+        <v>0.34113721751930798</v>
       </c>
       <c r="H7">
-        <v>0.7443308496459957</v>
+        <v>0.74433084964599572</v>
       </c>
       <c r="I7">
-        <v>0.9194846993872701</v>
+        <v>0.91948469938727007</v>
       </c>
       <c r="J7">
         <v>1.132013647095425</v>
       </c>
       <c r="K7">
-        <v>0.7974635471675963</v>
+        <v>0.79746354716759627</v>
       </c>
       <c r="L7">
-        <v>0.7236228207533266</v>
+        <v>0.72362282075332662</v>
       </c>
       <c r="M7">
-        <v>0.5789080124677344</v>
+        <v>0.57890801246773438</v>
       </c>
       <c r="N7">
         <v>1.317829125427296</v>
       </c>
       <c r="O7">
-        <v>0.7076670123735955</v>
+        <v>0.70766701237359553</v>
       </c>
       <c r="P7">
-        <v>0.8896592097597101</v>
+        <v>0.88965920975971013</v>
       </c>
       <c r="Q7">
-        <v>1.01485543169079</v>
+        <v>1.0148554316907901</v>
       </c>
       <c r="R7">
         <v>0.3542743402060729</v>
       </c>
       <c r="S7">
-        <v>0.7477360497351576</v>
+        <v>0.74773604973515762</v>
       </c>
       <c r="T7">
         <v>0.6856568702301048</v>
       </c>
       <c r="U7">
-        <v>0.9144607086568797</v>
+        <v>0.91446070865687967</v>
       </c>
       <c r="V7">
         <v>0.801243153841391</v>
       </c>
       <c r="W7">
-        <v>0.2898460373399949</v>
+        <v>0.28984603733999492</v>
       </c>
       <c r="X7">
-        <v>0.9934760543430758</v>
+        <v>0.99347605434307584</v>
       </c>
       <c r="Y7">
-        <v>0.6802629684932999</v>
+        <v>0.68026296849329992</v>
       </c>
       <c r="Z7">
-        <v>0.6932953218829055</v>
+        <v>0.69329532188290555</v>
       </c>
       <c r="AA7">
-        <v>0.7314198054779077</v>
+        <v>0.73141980547790775</v>
       </c>
       <c r="AB7">
-        <v>0.5191248499801733</v>
+        <v>0.51912484998017328</v>
       </c>
       <c r="AC7">
         <v>1.079028535654561</v>
       </c>
       <c r="AD7">
-        <v>1.062216984767799</v>
+        <v>1.0622169847677989</v>
       </c>
       <c r="AE7">
-        <v>0.8794667953668132</v>
+        <v>0.87946679536681316</v>
       </c>
       <c r="AF7">
-        <v>0.9264912292107862</v>
+        <v>0.92649122921078619</v>
       </c>
       <c r="AG7">
-        <v>0.5872330018159735</v>
+        <v>0.58723300181597349</v>
       </c>
       <c r="AH7">
-        <v>0.8848626491187443</v>
+        <v>0.88486264911874435</v>
       </c>
       <c r="AI7">
-        <v>0.6046901704344892</v>
+        <v>0.60469017043448925</v>
       </c>
       <c r="AJ7">
-        <v>1.256457203310963</v>
+        <v>1.2564572033109629</v>
       </c>
       <c r="AK7">
         <v>1.064173695636637</v>
       </c>
       <c r="AL7">
-        <v>0.6597869017214771</v>
+        <v>0.65978690172147714</v>
       </c>
       <c r="AM7">
-        <v>0.8500470901967535</v>
+        <v>0.85004709019675351</v>
       </c>
       <c r="AN7">
-        <v>0.2261940091936958</v>
+        <v>0.22619400919369581</v>
       </c>
       <c r="AO7">
-        <v>0.6171158318414535</v>
+        <v>0.61711583184145347</v>
       </c>
       <c r="AP7">
-        <v>0.7755823785127912</v>
+        <v>0.77558237851279122</v>
       </c>
       <c r="AQ7">
-        <v>1.101445774095643</v>
+        <v>1.1014457740956429</v>
       </c>
       <c r="AR7">
-        <v>0.8786516614666439</v>
+        <v>0.87865166146664386</v>
       </c>
       <c r="AS7">
         <v>0.5619637483808565</v>
       </c>
       <c r="AT7">
-        <v>0.741661505924937</v>
+        <v>0.74166150592493696</v>
       </c>
       <c r="AU7">
         <v>0.5213656453065485</v>
       </c>
       <c r="AV7">
-        <v>0.4333699397408928</v>
+        <v>0.43336993974089277</v>
       </c>
       <c r="AW7">
-        <v>0.613140819526818</v>
+        <v>0.61314081952681798</v>
       </c>
       <c r="AX7">
         <v>0.5894291263648066</v>
       </c>
       <c r="AY7">
-        <v>0.7036185730082521</v>
+        <v>0.70361857300825215</v>
       </c>
       <c r="AZ7">
-        <v>0.7209980577768197</v>
+        <v>0.72099805777681969</v>
       </c>
       <c r="BA7">
-        <v>0.7878639084733287</v>
+        <v>0.78786390847332866</v>
       </c>
       <c r="BB7">
-        <v>0.7784182024552115</v>
+        <v>0.77841820245521154</v>
       </c>
       <c r="BC7">
-        <v>1.268549940090779</v>
+        <v>1.2685499400907789</v>
       </c>
       <c r="BD7">
         <v>0.7939266628865137</v>
       </c>
       <c r="BE7">
-        <v>0.9410508600427689</v>
+        <v>0.94105086004276894</v>
       </c>
       <c r="BF7">
-        <v>0.5640653525809177</v>
+        <v>0.56406535258091772</v>
       </c>
       <c r="BG7">
-        <v>0.6866398332568611</v>
+        <v>0.68663983325686107</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>0.6439061017666231</v>
+        <v>0.64390610176662311</v>
       </c>
       <c r="C8">
-        <v>0.3771210029618828</v>
+        <v>0.37712100296188278</v>
       </c>
       <c r="D8">
-        <v>0.1726137043134248</v>
+        <v>0.17261370431342479</v>
       </c>
       <c r="E8">
-        <v>-0.03561737303789996</v>
+        <v>-3.5617373037899962E-2</v>
       </c>
       <c r="F8">
-        <v>0.4614429707783825</v>
+        <v>0.46144297077838248</v>
       </c>
       <c r="G8">
-        <v>0.0316875333164145</v>
+        <v>3.1687533316414503E-2</v>
       </c>
       <c r="H8">
-        <v>0.2587566615037679</v>
+        <v>0.25875666150376792</v>
       </c>
       <c r="I8">
         <v>0.6094899817779863</v>
       </c>
       <c r="J8">
-        <v>0.5004468103679721</v>
+        <v>0.50044681036797212</v>
       </c>
       <c r="K8">
-        <v>0.4279880434461975</v>
+        <v>0.42798804344619751</v>
       </c>
       <c r="L8">
-        <v>0.8902754602521061</v>
+        <v>0.89027546025210613</v>
       </c>
       <c r="M8">
         <v>0.1149821903105628</v>
@@ -1666,225 +1941,225 @@
         <v>1.252227327938283</v>
       </c>
       <c r="O8">
-        <v>0.6554031863702715</v>
+        <v>0.65540318637027151</v>
       </c>
       <c r="P8">
-        <v>1.070525562269019</v>
+        <v>1.0705255622690191</v>
       </c>
       <c r="Q8">
-        <v>0.9891374810850064</v>
+        <v>0.98913748108500643</v>
       </c>
       <c r="R8">
         <v>0.1463916548598721</v>
       </c>
       <c r="S8">
-        <v>0.2664997516839585</v>
+        <v>0.26649975168395851</v>
       </c>
       <c r="T8">
-        <v>0.7399060409380813</v>
+        <v>0.73990604093808132</v>
       </c>
       <c r="U8">
-        <v>0.8066406691515957</v>
+        <v>0.80664066915159571</v>
       </c>
       <c r="V8">
-        <v>0.501347810837964</v>
+        <v>0.50134781083796398</v>
       </c>
       <c r="W8">
-        <v>0.6741948401766504</v>
+        <v>0.67419484017665043</v>
       </c>
       <c r="X8">
-        <v>0.4646627324667622</v>
+        <v>0.46466273246676221</v>
       </c>
       <c r="Y8">
-        <v>0.3806244605034019</v>
+        <v>0.38062446050340187</v>
       </c>
       <c r="Z8">
-        <v>0.6187411329710618</v>
+        <v>0.61874113297106181</v>
       </c>
       <c r="AA8">
-        <v>0.4723204041188345</v>
+        <v>0.47232040411883452</v>
       </c>
       <c r="AB8">
-        <v>0.261581596688153</v>
+        <v>0.26158159668815301</v>
       </c>
       <c r="AC8">
         <v>1.23975942304751</v>
       </c>
       <c r="AD8">
-        <v>0.8693184890739638</v>
+        <v>0.86931848907396381</v>
       </c>
       <c r="AE8">
-        <v>0.6798854368111267</v>
+        <v>0.67988543681112668</v>
       </c>
       <c r="AF8">
-        <v>1.275494278233707</v>
+        <v>1.2754942782337071</v>
       </c>
       <c r="AG8">
-        <v>0.6006713019511907</v>
+        <v>0.60067130195119067</v>
       </c>
       <c r="AH8">
-        <v>0.7074043616314432</v>
+        <v>0.70740436163144316</v>
       </c>
       <c r="AI8">
-        <v>-0.07261558304982266</v>
+        <v>-7.2615583049822657E-2</v>
       </c>
       <c r="AJ8">
-        <v>0.7842478497763526</v>
+        <v>0.78424784977635265</v>
       </c>
       <c r="AK8">
-        <v>0.5777634653149453</v>
+        <v>0.57776346531494527</v>
       </c>
       <c r="AL8">
-        <v>0.6726342766808794</v>
+        <v>0.67263427668087938</v>
       </c>
       <c r="AM8">
-        <v>0.3947245613819113</v>
+        <v>0.39472456138191131</v>
       </c>
       <c r="AN8">
-        <v>0.5473930386146569</v>
+        <v>0.54739303861465693</v>
       </c>
       <c r="AO8">
-        <v>0.727135178210927</v>
+        <v>0.72713517821092699</v>
       </c>
       <c r="AP8">
-        <v>0.5006968680855942</v>
+        <v>0.50069686808559422</v>
       </c>
       <c r="AQ8">
-        <v>1.456143564442392</v>
+        <v>1.4561435644423919</v>
       </c>
       <c r="AR8">
-        <v>0.6306684517648495</v>
+        <v>0.63066845176484954</v>
       </c>
       <c r="AS8">
-        <v>0.9178544046724804</v>
+        <v>0.91785440467248036</v>
       </c>
       <c r="AT8">
-        <v>0.2157953002589978</v>
+        <v>0.21579530025899779</v>
       </c>
       <c r="AU8">
         <v>0.2026579992650468</v>
       </c>
       <c r="AV8">
-        <v>0.6122247321088883</v>
+        <v>0.61222473210888828</v>
       </c>
       <c r="AW8">
-        <v>0.9215950431445831</v>
+        <v>0.92159504314458307</v>
       </c>
       <c r="AX8">
         <v>1.100858320916569</v>
       </c>
       <c r="AY8">
-        <v>0.2803562559019427</v>
+        <v>0.28035625590194269</v>
       </c>
       <c r="AZ8">
-        <v>0.7909192366853152</v>
+        <v>0.79091923668531516</v>
       </c>
       <c r="BA8">
-        <v>0.1304311178294262</v>
+        <v>0.13043111782942621</v>
       </c>
       <c r="BB8">
-        <v>0.4678290045735286</v>
+        <v>0.46782900457352861</v>
       </c>
       <c r="BC8">
-        <v>0.7512970885286565</v>
+        <v>0.75129708852865651</v>
       </c>
       <c r="BD8">
-        <v>0.4002507702161875</v>
+        <v>0.40025077021618749</v>
       </c>
       <c r="BE8">
-        <v>0.7473005159489177</v>
+        <v>0.74730051594891767</v>
       </c>
       <c r="BF8">
-        <v>0.5641248514149271</v>
+        <v>0.56412485141492708</v>
       </c>
       <c r="BG8">
-        <v>0.3246931371402317</v>
+        <v>0.32469313714023168</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>0.7201253476082982</v>
+        <v>0.72012534760829816</v>
       </c>
       <c r="C9">
         <v>0.4060786733816914</v>
       </c>
       <c r="D9">
-        <v>0.06566937158870866</v>
+        <v>6.5669371588708655E-2</v>
       </c>
       <c r="E9">
-        <v>0.3273193062437667</v>
+        <v>0.32731930624376671</v>
       </c>
       <c r="F9">
-        <v>0.6680431233309377</v>
+        <v>0.66804312333093774</v>
       </c>
       <c r="G9">
-        <v>-0.2386162217973508</v>
+        <v>-0.23861622179735081</v>
       </c>
       <c r="H9">
-        <v>0.9702020704571904</v>
+        <v>0.97020207045719042</v>
       </c>
       <c r="I9">
-        <v>0.8005382164425902</v>
+        <v>0.80053821644259016</v>
       </c>
       <c r="J9">
-        <v>0.9411273784604312</v>
+        <v>0.94112737846043115</v>
       </c>
       <c r="K9">
-        <v>0.51381072738762</v>
+        <v>0.51381072738762001</v>
       </c>
       <c r="L9">
         <v>1.154327894035962</v>
       </c>
       <c r="M9">
-        <v>0.5810674256030189</v>
+        <v>0.58106742560301894</v>
       </c>
       <c r="N9">
         <v>1.064930901659821</v>
       </c>
       <c r="O9">
-        <v>0.3367373899168477</v>
+        <v>0.33673738991684771</v>
       </c>
       <c r="P9">
-        <v>0.8109932440593652</v>
+        <v>0.81099324405936524</v>
       </c>
       <c r="Q9">
-        <v>0.6152347359352028</v>
+        <v>0.61523473593520284</v>
       </c>
       <c r="R9">
-        <v>0.8046669102143735</v>
+        <v>0.80466691021437353</v>
       </c>
       <c r="S9">
-        <v>0.5471720454259009</v>
+        <v>0.54717204542590092</v>
       </c>
       <c r="T9">
-        <v>0.968268476385636</v>
+        <v>0.96826847638563596</v>
       </c>
       <c r="U9">
         <v>0.8267974468835293</v>
       </c>
       <c r="V9">
-        <v>1.185198771123568</v>
+        <v>1.1851987711235681</v>
       </c>
       <c r="W9">
-        <v>0.3555607893674411</v>
+        <v>0.35556078936744112</v>
       </c>
       <c r="X9">
-        <v>0.5746476623631918</v>
+        <v>0.57464766236319176</v>
       </c>
       <c r="Y9">
-        <v>0.7608623278040499</v>
+        <v>0.76086232780404994</v>
       </c>
       <c r="Z9">
-        <v>0.4336599073647457</v>
+        <v>0.43365990736474569</v>
       </c>
       <c r="AA9">
-        <v>0.387199033357236</v>
+        <v>0.38719903335723599</v>
       </c>
       <c r="AB9">
-        <v>0.5475291715055169</v>
+        <v>0.54752917150551694</v>
       </c>
       <c r="AC9">
         <v>1.409605027389023</v>
@@ -1893,305 +2168,305 @@
         <v>0.7457687401871389</v>
       </c>
       <c r="AE9">
-        <v>0.8385630626376417</v>
+        <v>0.83856306263764169</v>
       </c>
       <c r="AF9">
-        <v>0.6177001217833032</v>
+        <v>0.61770012178330325</v>
       </c>
       <c r="AG9">
-        <v>0.4839374857451769</v>
+        <v>0.48393748574517692</v>
       </c>
       <c r="AH9">
-        <v>0.5657620270797296</v>
+        <v>0.56576202707972956</v>
       </c>
       <c r="AI9">
-        <v>0.4946004800810657</v>
+        <v>0.49460048008106572</v>
       </c>
       <c r="AJ9">
-        <v>0.7674879509098597</v>
+        <v>0.76748795090985966</v>
       </c>
       <c r="AK9">
-        <v>0.5725012667697241</v>
+        <v>0.57250126676972413</v>
       </c>
       <c r="AL9">
-        <v>0.9203833170739658</v>
+        <v>0.92038331707396581</v>
       </c>
       <c r="AM9">
-        <v>0.3571791382481647</v>
+        <v>0.35717913824816472</v>
       </c>
       <c r="AN9">
-        <v>0.2444147077468379</v>
+        <v>0.24441470774683791</v>
       </c>
       <c r="AO9">
-        <v>0.4580501608217022</v>
+        <v>0.45805016082170219</v>
       </c>
       <c r="AP9">
-        <v>0.8016452327219666</v>
+        <v>0.80164523272196664</v>
       </c>
       <c r="AQ9">
-        <v>0.9732782209627869</v>
+        <v>0.97327822096278693</v>
       </c>
       <c r="AR9">
-        <v>0.7663229897739086</v>
+        <v>0.76632298977390856</v>
       </c>
       <c r="AS9">
-        <v>0.4579340250163285</v>
+        <v>0.45793402501632852</v>
       </c>
       <c r="AT9">
-        <v>0.9591973166294414</v>
+        <v>0.95919731662944141</v>
       </c>
       <c r="AU9">
-        <v>0.811239076199692</v>
+        <v>0.81123907619969204</v>
       </c>
       <c r="AV9">
-        <v>0.7603459674172269</v>
+        <v>0.76034596741722693</v>
       </c>
       <c r="AW9">
-        <v>0.5682012208805974</v>
+        <v>0.56820122088059744</v>
       </c>
       <c r="AX9">
-        <v>0.7626705148114326</v>
+        <v>0.76267051481143255</v>
       </c>
       <c r="AY9">
-        <v>0.5132572602795026</v>
+        <v>0.51325726027950258</v>
       </c>
       <c r="AZ9">
         <v>0.3525538118243659</v>
       </c>
       <c r="BA9">
-        <v>0.6857537193442518</v>
+        <v>0.68575371934425178</v>
       </c>
       <c r="BB9">
-        <v>0.5696906128855059</v>
+        <v>0.56969061288550593</v>
       </c>
       <c r="BC9">
-        <v>0.5033784802397006</v>
+        <v>0.50337848023970055</v>
       </c>
       <c r="BD9">
         <v>0.5435807098817157</v>
       </c>
       <c r="BE9">
-        <v>0.9025045566069367</v>
+        <v>0.90250455660693674</v>
       </c>
       <c r="BF9">
-        <v>0.7576118209288931</v>
+        <v>0.75761182092889312</v>
       </c>
       <c r="BG9">
-        <v>0.521830344253685</v>
+        <v>0.52183034425368502</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>0.4144096327351424</v>
+        <v>0.41440963273514242</v>
       </c>
       <c r="C10">
-        <v>-0.2556008352658546</v>
+        <v>-0.25560083526585459</v>
       </c>
       <c r="D10">
-        <v>0.07865674160442002</v>
+        <v>7.8656741604420016E-2</v>
       </c>
       <c r="E10">
-        <v>0.3194781248892894</v>
+        <v>0.31947812488928939</v>
       </c>
       <c r="F10">
-        <v>0.05513511150723018</v>
+        <v>5.5135111507230182E-2</v>
       </c>
       <c r="G10">
-        <v>0.5897134842191127</v>
+        <v>0.58971348421911274</v>
       </c>
       <c r="H10">
-        <v>0.3968190117323946</v>
+        <v>0.39681901173239459</v>
       </c>
       <c r="I10">
-        <v>-0.009454832370980781</v>
+        <v>-9.4548323709807806E-3</v>
       </c>
       <c r="J10">
-        <v>0.6058630213234416</v>
+        <v>0.60586302132344161</v>
       </c>
       <c r="K10">
-        <v>-0.2904796014268957</v>
+        <v>-0.29047960142689572</v>
       </c>
       <c r="L10">
-        <v>0.5365775282428464</v>
+        <v>0.53657752824284644</v>
       </c>
       <c r="M10">
-        <v>0.02416230185306838</v>
+        <v>2.416230185306838E-2</v>
       </c>
       <c r="N10">
-        <v>0.7821079145577008</v>
+        <v>0.78210791455770079</v>
       </c>
       <c r="O10">
-        <v>0.2311017902399496</v>
+        <v>0.23110179023994959</v>
       </c>
       <c r="P10">
-        <v>0.06988529644768277</v>
+        <v>6.9885296447682765E-2</v>
       </c>
       <c r="Q10">
         <v>0.133265190907147</v>
       </c>
       <c r="R10">
-        <v>0.02355679155972615</v>
+        <v>2.3556791559726151E-2</v>
       </c>
       <c r="S10">
-        <v>0.1863633354252207</v>
+        <v>0.18636333542522071</v>
       </c>
       <c r="T10">
-        <v>-0.03344633729471</v>
+        <v>-3.3446337294709999E-2</v>
       </c>
       <c r="U10">
-        <v>0.3296217607033468</v>
+        <v>0.32962176070334681</v>
       </c>
       <c r="V10">
-        <v>0.5922334931854706</v>
+        <v>0.59223349318547058</v>
       </c>
       <c r="W10">
-        <v>0.4064253443297697</v>
+        <v>0.40642534432976968</v>
       </c>
       <c r="X10">
-        <v>0.01153160627627649</v>
+        <v>1.1531606276276489E-2</v>
       </c>
       <c r="Y10">
-        <v>-0.08688843512544213</v>
+        <v>-8.6888435125442129E-2</v>
       </c>
       <c r="Z10">
         <v>-0.1100944529541943</v>
       </c>
       <c r="AA10">
-        <v>-0.09680495231514959</v>
+        <v>-9.6804952315149587E-2</v>
       </c>
       <c r="AB10">
-        <v>0.4829033715929303</v>
+        <v>0.48290337159293029</v>
       </c>
       <c r="AC10">
-        <v>0.6820094075346718</v>
+        <v>0.68200940753467176</v>
       </c>
       <c r="AD10">
-        <v>0.8093211494704329</v>
+        <v>0.80932114947043288</v>
       </c>
       <c r="AE10">
-        <v>0.3730340093956686</v>
+        <v>0.37303400939566861</v>
       </c>
       <c r="AF10">
-        <v>0.1147598282876384</v>
+        <v>0.11475982828763839</v>
       </c>
       <c r="AG10">
-        <v>0.1601981422250424</v>
+        <v>0.16019814222504239</v>
       </c>
       <c r="AH10">
-        <v>-0.04174922311500066</v>
+        <v>-4.1749223115000657E-2</v>
       </c>
       <c r="AI10">
-        <v>0.3357773630768365</v>
+        <v>0.33577736307683648</v>
       </c>
       <c r="AJ10">
-        <v>0.2152834314011383</v>
+        <v>0.21528343140113829</v>
       </c>
       <c r="AK10">
         <v>-0.1399730380358814</v>
       </c>
       <c r="AL10">
-        <v>0.3187788371260658</v>
+        <v>0.31877883712606581</v>
       </c>
       <c r="AM10">
-        <v>-0.2189813051927202</v>
+        <v>-0.21898130519272019</v>
       </c>
       <c r="AN10">
-        <v>-0.03690236199834343</v>
+        <v>-3.690236199834343E-2</v>
       </c>
       <c r="AO10">
-        <v>-0.1769719085092412</v>
+        <v>-0.17697190850924119</v>
       </c>
       <c r="AP10">
-        <v>-0.2918780976254935</v>
+        <v>-0.29187809762549349</v>
       </c>
       <c r="AQ10">
-        <v>0.7415511331594808</v>
+        <v>0.74155113315948085</v>
       </c>
       <c r="AR10">
-        <v>0.03637679874228695</v>
+        <v>3.6376798742286949E-2</v>
       </c>
       <c r="AS10">
-        <v>-0.5851873799829989</v>
+        <v>-0.58518737998299886</v>
       </c>
       <c r="AT10">
-        <v>0.151859823418924</v>
+        <v>0.15185982341892401</v>
       </c>
       <c r="AU10">
-        <v>0.09842211077792368</v>
+        <v>9.8422110777923677E-2</v>
       </c>
       <c r="AV10">
-        <v>0.3351834871253166</v>
+        <v>0.33518348712531659</v>
       </c>
       <c r="AW10">
-        <v>0.4134810933229782</v>
+        <v>0.41348109332297822</v>
       </c>
       <c r="AX10">
-        <v>0.7003267445418008</v>
+        <v>0.70032674454180077</v>
       </c>
       <c r="AY10">
-        <v>0.5704078720160383</v>
+        <v>0.57040787201603826</v>
       </c>
       <c r="AZ10">
-        <v>0.3054617586181193</v>
+        <v>0.30546175861811931</v>
       </c>
       <c r="BA10">
-        <v>-0.05521293969386354</v>
+        <v>-5.5212939693863539E-2</v>
       </c>
       <c r="BB10">
-        <v>0.09776437155872376</v>
+        <v>9.7764371558723764E-2</v>
       </c>
       <c r="BC10">
-        <v>0.4993010553860387</v>
+        <v>0.49930105538603869</v>
       </c>
       <c r="BD10">
-        <v>-0.2827077963098922</v>
+        <v>-0.28270779630989218</v>
       </c>
       <c r="BE10">
-        <v>0.3053472133094818</v>
+        <v>0.30534721330948178</v>
       </c>
       <c r="BF10">
         <v>0.5717628252120589</v>
       </c>
       <c r="BG10">
-        <v>-0.05209440664631938</v>
+        <v>-5.2094406646319383E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>0.4995759047091093</v>
+        <v>0.49957590470910929</v>
       </c>
       <c r="C11">
-        <v>0.5523996199751243</v>
+        <v>0.55239961997512432</v>
       </c>
       <c r="D11">
-        <v>0.6838259934373059</v>
+        <v>0.68382599343730588</v>
       </c>
       <c r="E11">
-        <v>0.7307839999519303</v>
+        <v>0.73078399995193033</v>
       </c>
       <c r="F11">
-        <v>0.7308328332862655</v>
+        <v>0.73083283328626547</v>
       </c>
       <c r="G11">
-        <v>1.58937455144818</v>
+        <v>1.5893745514481801</v>
       </c>
       <c r="H11">
-        <v>0.7499653617358533</v>
+        <v>0.74996536173585326</v>
       </c>
       <c r="I11">
-        <v>0.5639714266587825</v>
+        <v>0.56397142665878253</v>
       </c>
       <c r="J11">
-        <v>0.7454187632932283</v>
+        <v>0.74541876329322831</v>
       </c>
       <c r="K11">
-        <v>0.5540675701308588</v>
+        <v>0.55406757013085883</v>
       </c>
       <c r="L11">
         <v>1.210970480188319</v>
@@ -2200,55 +2475,55 @@
         <v>0.6766322323092715</v>
       </c>
       <c r="N11">
-        <v>0.3787291994678018</v>
+        <v>0.37872919946780181</v>
       </c>
       <c r="O11">
         <v>0.8912970371627994</v>
       </c>
       <c r="P11">
-        <v>0.9975207325438837</v>
+        <v>0.99752073254388374</v>
       </c>
       <c r="Q11">
-        <v>0.7795079417547401</v>
+        <v>0.77950794175474014</v>
       </c>
       <c r="R11">
-        <v>0.4867438896601899</v>
+        <v>0.48674388966018989</v>
       </c>
       <c r="S11">
-        <v>0.5095369699907543</v>
+        <v>0.50953696999075426</v>
       </c>
       <c r="T11">
-        <v>0.6586262523835925</v>
+        <v>0.65862625238359251</v>
       </c>
       <c r="U11">
-        <v>0.8337061877472901</v>
+        <v>0.83370618774729011</v>
       </c>
       <c r="V11">
         <v>0.6758503460755918</v>
       </c>
       <c r="W11">
-        <v>0.9345278947115845</v>
+        <v>0.93452789471158448</v>
       </c>
       <c r="X11">
-        <v>0.71792494197349</v>
+        <v>0.71792494197348999</v>
       </c>
       <c r="Y11">
-        <v>0.5894873710150869</v>
+        <v>0.58948737101508686</v>
       </c>
       <c r="Z11">
-        <v>0.6948258213557879</v>
+        <v>0.69482582135578785</v>
       </c>
       <c r="AA11">
-        <v>0.4456177859533237</v>
+        <v>0.44561778595332369</v>
       </c>
       <c r="AB11">
-        <v>0.893954771616183</v>
+        <v>0.89395477161618297</v>
       </c>
       <c r="AC11">
         <v>1.17824476070994</v>
       </c>
       <c r="AD11">
-        <v>0.5327484288330384</v>
+        <v>0.53274842883303841</v>
       </c>
       <c r="AE11">
         <v>0.8785354863964504</v>
@@ -2257,49 +2532,49 @@
         <v>1.184154622007032</v>
       </c>
       <c r="AG11">
-        <v>0.5036072022678919</v>
+        <v>0.50360720226789191</v>
       </c>
       <c r="AH11">
-        <v>0.6891190576080303</v>
+        <v>0.68911905760803027</v>
       </c>
       <c r="AI11">
-        <v>0.6554066237878595</v>
+        <v>0.65540662378785952</v>
       </c>
       <c r="AJ11">
-        <v>0.5124858248343045</v>
+        <v>0.51248582483430449</v>
       </c>
       <c r="AK11">
-        <v>0.6343400717289168</v>
+        <v>0.63434007172891682</v>
       </c>
       <c r="AL11">
         <v>1.280305321447498</v>
       </c>
       <c r="AM11">
-        <v>0.4740547803253405</v>
+        <v>0.47405478032534049</v>
       </c>
       <c r="AN11">
-        <v>1.295595899395222</v>
+        <v>1.2955958993952219</v>
       </c>
       <c r="AO11">
-        <v>0.8773490007885891</v>
+        <v>0.87734900078858913</v>
       </c>
       <c r="AP11">
         <v>0.7660788744119702</v>
       </c>
       <c r="AQ11">
-        <v>1.107640455658157</v>
+        <v>1.1076404556581569</v>
       </c>
       <c r="AR11">
-        <v>0.512701004505582</v>
+        <v>0.51270100450558198</v>
       </c>
       <c r="AS11">
-        <v>0.8629578846229137</v>
+        <v>0.86295788462291367</v>
       </c>
       <c r="AT11">
-        <v>0.5616990898443325</v>
+        <v>0.56169908984433248</v>
       </c>
       <c r="AU11">
-        <v>0.48897562228138</v>
+        <v>0.48897562228137997</v>
       </c>
       <c r="AV11">
         <v>0.259728056559204</v>
@@ -2308,34 +2583,34 @@
         <v>1.049704109565575</v>
       </c>
       <c r="AX11">
-        <v>0.890565401395792</v>
+        <v>0.89056540139579199</v>
       </c>
       <c r="AY11">
-        <v>0.6792624190641064</v>
+        <v>0.67926241906410645</v>
       </c>
       <c r="AZ11">
         <v>1.129025186909528</v>
       </c>
       <c r="BA11">
-        <v>0.8616062167602253</v>
+        <v>0.86160621676022531</v>
       </c>
       <c r="BB11">
-        <v>0.3432716757915324</v>
+        <v>0.34327167579153239</v>
       </c>
       <c r="BC11">
         <v>1.356893642321769</v>
       </c>
       <c r="BD11">
-        <v>0.7256747935381249</v>
+        <v>0.72567479353812492</v>
       </c>
       <c r="BE11">
-        <v>1.557798924819987</v>
+        <v>1.5577989248199871</v>
       </c>
       <c r="BF11">
-        <v>0.9728662849906797</v>
+        <v>0.97286628499067973</v>
       </c>
       <c r="BG11">
-        <v>0.5537518490103064</v>
+        <v>0.55375184901030639</v>
       </c>
     </row>
   </sheetData>
